--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -365,7 +365,7 @@
     <t>小水井塔死亡增加大水井塔产水</t>
   </si>
   <si>
-    <t>被动</t>
+    <t>死亡</t>
   </si>
   <si>
     <t>防御塔普攻</t>
@@ -596,18 +596,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -1074,7 +1074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1096,9 +1096,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1425,7 +1422,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:T2"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1561,10 +1558,10 @@
       <c r="L2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -1681,213 +1678,128 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:26">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
       <c r="G4" s="1">
         <v>10000</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
       <c r="S4" s="1">
         <v>0</v>
       </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
       <c r="Y4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="Z4" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:26">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>10000</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
       <c r="S5" s="1">
         <v>0</v>
       </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
       <c r="Y5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="Z5" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:26">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
       <c r="G6" s="1">
         <v>10000</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
       <c r="S6" s="1">
         <v>0</v>
       </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
       <c r="Y6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="Z6" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:26">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
       <c r="G7" s="1">
         <v>10000</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
       <c r="S7" s="1">
         <v>0</v>
       </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
       <c r="Y7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z7" s="9" t="s">
+      <c r="Z7" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:26">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
       <c r="G8" s="1">
         <v>10000</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
       <c r="S8" s="1">
         <v>0</v>
       </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="9" t="s">
+      <c r="U8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
       <c r="Y8" s="1" t="b">
         <v>0</v>
       </c>
@@ -1896,41 +1808,24 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:26">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
       <c r="G9" s="1">
         <v>10000</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
       <c r="S9" s="1">
         <v>0</v>
       </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="9" t="s">
+      <c r="U9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
       <c r="Y9" s="1" t="b">
         <v>0</v>
       </c>
@@ -1939,41 +1834,24 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:26">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
       <c r="G10" s="1">
         <v>10000</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
       <c r="S10" s="1">
         <v>0</v>
       </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="9" t="s">
+      <c r="U10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
       <c r="Y10" s="1" t="b">
         <v>0</v>
       </c>
@@ -1982,41 +1860,24 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:26">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
       <c r="G11" s="1">
         <v>10000</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
       <c r="S11" s="1">
         <v>0</v>
       </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="9" t="s">
+      <c r="U11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
       <c r="Y11" s="1" t="b">
         <v>0</v>
       </c>
@@ -2025,41 +1886,24 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:26">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
       <c r="G12" s="1">
         <v>10000</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
       <c r="S12" s="1">
         <v>0</v>
       </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="9" t="s">
+      <c r="U12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
       <c r="Y12" s="1" t="b">
         <v>0</v>
       </c>
@@ -2068,41 +1912,24 @@
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="2:26">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
       <c r="G13" s="1">
         <v>10000</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
       <c r="S13" s="1">
         <v>0</v>
       </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="9" t="s">
+      <c r="U13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
       <c r="Y13" s="1" t="b">
         <v>0</v>
       </c>
@@ -2111,174 +1938,106 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:26">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
       <c r="G14" s="1">
         <v>10000</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
       <c r="S14" s="1">
         <v>0</v>
       </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="9" t="s">
+      <c r="U14" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
       <c r="Y14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z14" s="9" t="s">
+      <c r="Z14" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:26">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
       <c r="G15" s="1">
         <v>10000</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
       <c r="S15" s="1">
         <v>0</v>
       </c>
-      <c r="T15" s="1"/>
-      <c r="U15" s="9" t="s">
+      <c r="U15" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
       <c r="Y15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z15" s="9" t="s">
+      <c r="Z15" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:26">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
       <c r="G16" s="1">
         <v>10000</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
       <c r="S16" s="1">
         <v>0</v>
       </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="9" t="s">
+      <c r="U16" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
       <c r="Y16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z16" s="9" t="s">
+      <c r="Z16" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:26">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
       <c r="G17" s="1">
         <v>10000</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
       <c r="S17" s="1">
         <v>0</v>
       </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="9" t="s">
+      <c r="U17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
       <c r="Y17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z17" s="9" t="s">
+      <c r="Z17" s="8" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2292,38 +2051,24 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
       <c r="G18" s="1">
         <v>10000</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
       <c r="Q18" s="1">
         <v>667</v>
       </c>
-      <c r="R18" s="1"/>
       <c r="S18" s="1">
         <v>333</v>
       </c>
-      <c r="T18" s="1"/>
       <c r="U18" s="1">
         <v>10000001</v>
       </c>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
       <c r="Y18" s="1" t="b">
         <v>1</v>
       </c>
@@ -2341,7 +2086,6 @@
       <c r="D19" s="1">
         <v>3</v>
       </c>
-      <c r="E19" s="1"/>
       <c r="F19" s="1">
         <v>20000</v>
       </c>
@@ -2351,30 +2095,18 @@
       <c r="H19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
       <c r="Q19" s="1">
         <v>667</v>
       </c>
-      <c r="R19" s="1"/>
       <c r="S19" s="1">
         <v>333</v>
       </c>
-      <c r="T19" s="1"/>
       <c r="U19" s="1">
         <v>10000101</v>
       </c>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
       <c r="Y19" s="1" t="b">
         <v>0</v>
       </c>
@@ -2392,7 +2124,6 @@
       <c r="D20" s="1">
         <v>5</v>
       </c>
-      <c r="E20" s="1"/>
       <c r="F20" s="1">
         <v>45000</v>
       </c>
@@ -2402,30 +2133,18 @@
       <c r="H20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
       <c r="Q20" s="1">
         <v>667</v>
       </c>
-      <c r="R20" s="1"/>
       <c r="S20" s="1">
         <v>333</v>
       </c>
-      <c r="T20" s="1"/>
       <c r="U20" s="1">
         <v>10000201</v>
       </c>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
       <c r="Y20" s="1" t="b">
         <v>0</v>
       </c>
@@ -2440,35 +2159,18 @@
       <c r="C21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
       <c r="G21" s="1">
         <v>10000</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
       <c r="S21" s="1">
         <v>0</v>
       </c>
-      <c r="T21" s="1"/>
       <c r="U21" s="1">
         <v>30000001</v>
       </c>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
       <c r="Y21" s="1" t="b">
         <v>0</v>
       </c>
@@ -2483,35 +2185,18 @@
       <c r="C22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
       <c r="G22" s="1">
         <v>10000</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
       <c r="S22" s="1">
         <v>0</v>
       </c>
-      <c r="T22" s="1"/>
       <c r="U22" s="1">
         <v>30010001</v>
       </c>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
       <c r="Y22" s="1" t="b">
         <v>0</v>
       </c>
@@ -2526,35 +2211,18 @@
       <c r="C23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
       <c r="G23" s="1">
         <v>10000</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
       <c r="S23" s="1">
         <v>0</v>
       </c>
-      <c r="T23" s="1"/>
       <c r="U23" s="1">
         <v>30010101</v>
       </c>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
       <c r="Y23" s="1" t="b">
         <v>0</v>
       </c>
@@ -2569,37 +2237,21 @@
       <c r="C24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
       <c r="G24" s="1">
         <v>10000</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
       <c r="Q24" s="1">
         <v>1000</v>
       </c>
-      <c r="R24" s="1"/>
       <c r="S24" s="1">
         <v>333</v>
       </c>
-      <c r="T24" s="1"/>
       <c r="U24" s="1">
         <v>31000001</v>
       </c>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
       <c r="Y24" s="1" t="b">
         <v>0</v>
       </c>
@@ -2614,35 +2266,18 @@
       <c r="C25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
       <c r="G25" s="1">
         <v>10000</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
       <c r="S25" s="1">
         <v>0</v>
       </c>
-      <c r="T25" s="1"/>
       <c r="U25" s="5">
         <v>32000001</v>
       </c>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
       <c r="Y25" s="1" t="b">
         <v>0</v>
       </c>
@@ -2657,35 +2292,18 @@
       <c r="C26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
       <c r="G26" s="1">
         <v>10000</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
       <c r="S26" s="1">
         <v>0</v>
       </c>
-      <c r="T26" s="1"/>
       <c r="U26" s="1">
         <v>33000001</v>
       </c>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
       <c r="Y26" s="1" t="b">
         <v>0</v>
       </c>
@@ -2700,31 +2318,18 @@
       <c r="C27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="1"/>
       <c r="E27" s="1">
         <v>30000</v>
       </c>
-      <c r="F27" s="1"/>
       <c r="G27" s="1">
         <v>10000</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
       <c r="S27" s="1">
         <v>0</v>
       </c>
-      <c r="T27" s="1"/>
       <c r="U27" s="1">
         <v>39000001</v>
       </c>
@@ -2734,7 +2339,6 @@
       <c r="W27" s="1">
         <v>39000001</v>
       </c>
-      <c r="X27" s="1"/>
       <c r="Y27" s="1" t="b">
         <v>0</v>
       </c>
@@ -2749,35 +2353,18 @@
       <c r="C28" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
       <c r="G28" s="3">
         <v>10000</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
       <c r="S28" s="1">
         <v>333</v>
       </c>
-      <c r="T28" s="3"/>
       <c r="U28" s="3">
         <v>40000101</v>
       </c>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
       <c r="Y28" s="3" t="b">
         <v>0</v>
       </c>
@@ -2795,39 +2382,24 @@
       <c r="C29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
       <c r="G29" s="1">
         <v>10000</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
       <c r="Q29" s="1">
         <v>1000</v>
       </c>
-      <c r="R29" s="1"/>
       <c r="S29" s="1">
         <v>333</v>
       </c>
-      <c r="T29" s="1"/>
       <c r="U29" s="1">
         <v>40000001</v>
       </c>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
       <c r="Y29" s="1" t="b">
         <v>0</v>
       </c>
@@ -2842,39 +2414,24 @@
       <c r="C30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
       <c r="G30" s="1">
         <v>10000</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
       <c r="Q30" s="1">
         <v>1000</v>
       </c>
-      <c r="R30" s="1"/>
       <c r="S30" s="1">
         <v>333</v>
       </c>
-      <c r="T30" s="1"/>
       <c r="U30" s="1">
         <v>40010001</v>
       </c>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
       <c r="Y30" s="1" t="b">
         <v>0</v>
       </c>
@@ -2889,39 +2446,24 @@
       <c r="C31" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
       <c r="G31" s="3">
         <v>10000</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
       <c r="Q31" s="3">
         <v>1000</v>
       </c>
-      <c r="R31" s="3"/>
       <c r="S31" s="3">
         <v>333</v>
       </c>
-      <c r="T31" s="3"/>
       <c r="U31" s="3">
         <v>40020001</v>
       </c>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
       <c r="Y31" s="3" t="b">
         <v>0</v>
       </c>
@@ -2939,39 +2481,24 @@
       <c r="C32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
       <c r="G32" s="3">
         <v>10000</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
       <c r="Q32" s="1">
         <v>1000</v>
       </c>
-      <c r="R32" s="1"/>
       <c r="S32" s="1">
         <v>333</v>
       </c>
-      <c r="T32" s="1"/>
       <c r="U32" s="1">
         <v>41000001</v>
       </c>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
       <c r="Y32" s="1" t="b">
         <v>0</v>
       </c>
@@ -2986,39 +2513,24 @@
       <c r="C33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
       <c r="G33" s="3">
         <v>10000</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
       <c r="Q33" s="1">
         <v>1000</v>
       </c>
-      <c r="R33" s="1"/>
       <c r="S33" s="1">
         <v>333</v>
       </c>
-      <c r="T33" s="1"/>
       <c r="U33" s="1">
         <v>49000001</v>
       </c>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
       <c r="Y33" s="1" t="b">
         <v>0</v>
       </c>
@@ -3033,35 +2545,18 @@
       <c r="C34" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
       <c r="G34" s="3">
         <v>10000</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
       <c r="S34" s="1">
         <v>333</v>
       </c>
-      <c r="T34" s="3"/>
       <c r="U34" s="3">
         <v>92000001</v>
       </c>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
       <c r="Y34" s="3" t="b">
         <v>0</v>
       </c>
@@ -3079,35 +2574,18 @@
       <c r="C35" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
       <c r="G35" s="3">
         <v>10000</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
       <c r="S35" s="1">
         <v>333</v>
       </c>
-      <c r="T35" s="3"/>
       <c r="U35" s="3">
         <v>92010001</v>
       </c>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
       <c r="Y35" s="3" t="b">
         <v>0</v>
       </c>
@@ -3125,35 +2603,18 @@
       <c r="C36" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
       <c r="G36" s="3">
         <v>10000</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
       <c r="S36" s="1">
         <v>0</v>
       </c>
-      <c r="T36" s="1"/>
       <c r="U36" s="3">
         <v>92020001</v>
       </c>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
       <c r="Y36" s="3" t="b">
         <v>0</v>
       </c>
@@ -3168,35 +2629,18 @@
       <c r="C37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
       <c r="G37" s="3">
         <v>10000</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
       <c r="S37" s="1">
         <v>0</v>
       </c>
-      <c r="T37" s="1"/>
       <c r="U37" s="3">
         <v>92020002</v>
       </c>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
       <c r="Y37" s="3" t="b">
         <v>0</v>
       </c>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15960"/>
+    <workbookView windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -380,7 +380,7 @@
     <t>野怪营地召唤</t>
   </si>
   <si>
-    <t>满足所有条件</t>
+    <t>所有</t>
   </si>
   <si>
     <t>普通攻击植物-死亡自爆</t>
@@ -597,11 +597,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -610,6 +605,11 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1421,8 +1421,8 @@
   <sheetPr/>
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1445,9 +1445,9 @@
     <col min="18" max="18" width="14.1428571428571" style="1" customWidth="1"/>
     <col min="19" max="20" width="9.82142857142857" style="1" customWidth="1"/>
     <col min="21" max="21" width="15.7142857142857" style="1" customWidth="1"/>
-    <col min="22" max="22" width="22.9285714285714" style="1" customWidth="1"/>
+    <col min="22" max="22" width="23.2857142857143" style="1" customWidth="1"/>
     <col min="23" max="23" width="10.8571428571429" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.03571428571429" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7142857142857" style="1" customWidth="1"/>
     <col min="25" max="25" width="17.1428571428571" style="1" customWidth="1"/>
     <col min="26" max="26" width="13.9285714285714" style="1" customWidth="1"/>
     <col min="27" max="16384" width="9" style="1"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowWidth="28000" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -347,13 +347,13 @@
     <t>attack_01</t>
   </si>
   <si>
-    <t>英雄1000，植物加速成长</t>
+    <t>英雄1000，添加攻速BUFF</t>
   </si>
   <si>
     <t>skill_01</t>
   </si>
   <si>
-    <t>英雄1000，建筑和士兵加速攻击</t>
+    <t>英雄1000，3目标子弹伤害</t>
   </si>
   <si>
     <t>大水井塔水资源</t>
@@ -597,6 +597,11 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -605,11 +610,6 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1421,8 +1421,8 @@
   <sheetPr/>
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="$A18:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -2087,7 +2087,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="1">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="G19" s="1">
         <v>10000</v>
@@ -2125,7 +2125,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="1">
-        <v>45000</v>
+        <v>5000</v>
       </c>
       <c r="G20" s="1">
         <v>10000</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15900"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -251,157 +251,46 @@
     <t>目标搜索</t>
   </si>
   <si>
-    <t>00000001</t>
-  </si>
-  <si>
-    <t>全局增加复活间隔1级</t>
+    <t>英雄1000普攻</t>
+  </si>
+  <si>
+    <t>普攻</t>
+  </si>
+  <si>
+    <t>attack_01</t>
+  </si>
+  <si>
+    <t>英雄1000，添加攻速BUFF</t>
   </si>
   <si>
     <t>主动</t>
   </si>
   <si>
-    <t>00000002</t>
-  </si>
-  <si>
-    <t>全局增加复活间隔2级</t>
-  </si>
-  <si>
-    <t>00000003</t>
-  </si>
-  <si>
-    <t>全局增加复活间隔3级</t>
-  </si>
-  <si>
-    <t>00000004</t>
-  </si>
-  <si>
-    <t>全局增加复活间隔4级</t>
-  </si>
-  <si>
-    <t>00000101</t>
-  </si>
-  <si>
-    <t>全局加快小水塔速度1级</t>
-  </si>
-  <si>
-    <t>00000102</t>
-  </si>
-  <si>
-    <t>全局加快小水塔速度2级</t>
-  </si>
-  <si>
-    <t>00000103</t>
-  </si>
-  <si>
-    <t>全局加快小水塔速度3级</t>
-  </si>
-  <si>
-    <t>00000201</t>
-  </si>
-  <si>
-    <t>全局加快大水塔速度1级</t>
-  </si>
-  <si>
-    <t>00000202</t>
-  </si>
-  <si>
-    <t>全局加快大水塔速度2级</t>
-  </si>
-  <si>
-    <t>00000203</t>
-  </si>
-  <si>
-    <t>全局加快大水塔速度3级</t>
-  </si>
-  <si>
-    <t>00000301</t>
-  </si>
-  <si>
-    <t>全局增加种子箱攻速1级</t>
-  </si>
-  <si>
-    <t>00000302</t>
-  </si>
-  <si>
-    <t>全局增加种子箱攻速2级</t>
-  </si>
-  <si>
-    <t>00000303</t>
-  </si>
-  <si>
-    <t>全局增加种子箱攻速3级</t>
-  </si>
-  <si>
-    <t>00000304</t>
-  </si>
-  <si>
-    <t>全局增加种子箱攻速4级</t>
-  </si>
-  <si>
-    <t>英雄1000普攻</t>
-  </si>
-  <si>
-    <t>普攻</t>
-  </si>
-  <si>
-    <t>attack_01</t>
-  </si>
-  <si>
-    <t>英雄1000，添加攻速BUFF</t>
-  </si>
-  <si>
     <t>skill_01</t>
   </si>
   <si>
     <t>英雄1000，3目标子弹伤害</t>
   </si>
   <si>
-    <t>大水井塔水资源</t>
-  </si>
-  <si>
-    <t>小水井塔水资源</t>
-  </si>
-  <si>
-    <t>小水井塔死亡增加大水井塔产水</t>
+    <t>防御塔普攻</t>
+  </si>
+  <si>
+    <t>兵营A召唤</t>
+  </si>
+  <si>
+    <t>添加攻速BUFF</t>
+  </si>
+  <si>
+    <t>普通攻击植物-普攻</t>
+  </si>
+  <si>
+    <t>AllSkill001_Release</t>
+  </si>
+  <si>
+    <t>普通攻击植物-死亡自爆</t>
   </si>
   <si>
     <t>死亡</t>
-  </si>
-  <si>
-    <t>防御塔普攻</t>
-  </si>
-  <si>
-    <t>兵营A召唤</t>
-  </si>
-  <si>
-    <t>种子台随机生成种子</t>
-  </si>
-  <si>
-    <t>野怪营地召唤</t>
-  </si>
-  <si>
-    <t>所有</t>
-  </si>
-  <si>
-    <t>普通攻击植物-死亡自爆</t>
-  </si>
-  <si>
-    <t>普通攻击植物-普攻</t>
-  </si>
-  <si>
-    <t>AllSkill001_Release</t>
-  </si>
-  <si>
-    <t>高级攻击植物-普攻</t>
-  </si>
-  <si>
-    <t>远程攻击植物-普攻</t>
-  </si>
-  <si>
-    <t>兵营攻击植物-普攻</t>
-  </si>
-  <si>
-    <t>中立怪-普攻</t>
   </si>
   <si>
     <t>使用血瓶</t>
@@ -596,20 +485,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1096,9 +985,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1419,10 +1305,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="$A18:$XFD20"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1678,973 +1564,365 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:26">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1">
+        <v>10000001</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>55</v>
+      <c r="D4" s="1">
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>10000</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="Q4" s="1">
+        <v>667</v>
+      </c>
       <c r="S4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>54</v>
+        <v>333</v>
+      </c>
+      <c r="U4" s="1">
+        <v>10000001</v>
       </c>
       <c r="Y4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>10000001</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:26">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1">
+        <v>10000101</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>58</v>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5000</v>
       </c>
       <c r="G5" s="1">
         <v>10000</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>667</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>57</v>
+        <v>333</v>
+      </c>
+      <c r="U5" s="1">
+        <v>10000101</v>
       </c>
       <c r="Y5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z5" s="8" t="s">
-        <v>54</v>
+      <c r="Z5" s="1">
+        <v>10000101</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:26">
-      <c r="B6" s="8" t="s">
-        <v>59</v>
+      <c r="B6" s="1">
+        <v>10000201</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5000</v>
+      </c>
       <c r="G6" s="1">
         <v>10000</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>667</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>59</v>
+        <v>333</v>
+      </c>
+      <c r="U6" s="1">
+        <v>10000201</v>
       </c>
       <c r="Y6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z6" s="8" t="s">
-        <v>54</v>
+      <c r="Z6" s="1">
+        <v>10000201</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:26">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1">
+        <v>30010001</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="G7" s="1">
         <v>10000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1000</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>61</v>
+        <v>333</v>
+      </c>
+      <c r="U7" s="1">
+        <v>30010001</v>
       </c>
       <c r="Y7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>30010001</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:26">
-      <c r="B8" s="8" t="s">
-        <v>63</v>
+      <c r="B8" s="5">
+        <v>30020001</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1">
         <v>10000</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
       </c>
-      <c r="U8" s="8" t="s">
-        <v>63</v>
+      <c r="U8" s="5">
+        <v>30020001</v>
       </c>
       <c r="Y8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>63</v>
+      <c r="Z8" s="5">
+        <v>30020001</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:26">
-      <c r="B9" s="8" t="s">
-        <v>65</v>
+      <c r="B9" s="1">
+        <v>30030001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1">
         <v>10000</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
       </c>
-      <c r="U9" s="8" t="s">
-        <v>65</v>
+      <c r="U9" s="1">
+        <v>30030001</v>
       </c>
       <c r="Y9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>63</v>
+      <c r="Z9" s="1">
+        <v>30030001</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:26">
-      <c r="B10" s="8" t="s">
-        <v>67</v>
+      <c r="B10" s="1">
+        <v>40000001</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1">
         <v>10000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1000</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>67</v>
+        <v>333</v>
+      </c>
+      <c r="U10" s="1">
+        <v>40000001</v>
       </c>
       <c r="Y10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>63</v>
+      <c r="Z10" s="1">
+        <v>40000001</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="2:26">
-      <c r="B11" s="8" t="s">
+    <row r="11" s="3" customFormat="1" spans="2:29">
+      <c r="B11" s="3">
+        <v>40000101</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" s="1">
+        <v>333</v>
+      </c>
+      <c r="U11" s="3">
+        <v>40000101</v>
+      </c>
+      <c r="Y11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>40000101</v>
+      </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="2:29">
+      <c r="B12" s="3">
+        <v>92000001</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S12" s="1">
+        <v>333</v>
+      </c>
+      <c r="U12" s="3">
+        <v>92000001</v>
+      </c>
+      <c r="Y12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>92000001</v>
+      </c>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="2:29">
+      <c r="B13" s="3">
+        <v>92010001</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="G13" s="3">
         <v>10000</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" s="1">
+      <c r="H13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S13" s="1">
+        <v>333</v>
+      </c>
+      <c r="U13" s="3">
+        <v>92010001</v>
+      </c>
+      <c r="Y13" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="U11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="2:26">
-      <c r="B12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="2:26">
-      <c r="B13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="Z13" s="3">
+        <v>92010001</v>
+      </c>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:26">
-      <c r="B14" s="8" t="s">
-        <v>75</v>
+      <c r="B14" s="3">
+        <v>92020001</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="1">
+        <v>70</v>
+      </c>
+      <c r="G14" s="3">
         <v>10000</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S14" s="1">
         <v>0</v>
       </c>
-      <c r="U14" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y14" s="1" t="b">
+      <c r="U14" s="3">
+        <v>92020001</v>
+      </c>
+      <c r="Y14" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="Z14" s="8" t="s">
-        <v>75</v>
+      <c r="Z14" s="3">
+        <v>92020001</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:26">
-      <c r="B15" s="8" t="s">
-        <v>77</v>
+      <c r="B15" s="3">
+        <v>92020002</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="1">
+        <v>71</v>
+      </c>
+      <c r="G15" s="3">
         <v>10000</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S15" s="1">
         <v>0</v>
       </c>
-      <c r="U15" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y15" s="1" t="b">
+      <c r="U15" s="3">
+        <v>92020002</v>
+      </c>
+      <c r="Y15" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="Z15" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="2:26">
-      <c r="B16" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="2:26">
-      <c r="B17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="2:26">
-      <c r="B18" s="1">
-        <v>10000001</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>667</v>
-      </c>
-      <c r="S18" s="1">
-        <v>333</v>
-      </c>
-      <c r="U18" s="1">
-        <v>10000001</v>
-      </c>
-      <c r="Y18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>10000001</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="2:26">
-      <c r="B19" s="1">
-        <v>10000101</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G19" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>667</v>
-      </c>
-      <c r="S19" s="1">
-        <v>333</v>
-      </c>
-      <c r="U19" s="1">
-        <v>10000101</v>
-      </c>
-      <c r="Y19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>10000101</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="2:26">
-      <c r="B20" s="1">
-        <v>10000201</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="1">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G20" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>667</v>
-      </c>
-      <c r="S20" s="1">
-        <v>333</v>
-      </c>
-      <c r="U20" s="1">
-        <v>10000201</v>
-      </c>
-      <c r="Y20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>10000201</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="2:26">
-      <c r="B21" s="1">
-        <v>30000001</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1">
-        <v>30000001</v>
-      </c>
-      <c r="Y21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>30000001</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="2:26">
-      <c r="B22" s="1">
-        <v>30010001</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-      <c r="U22" s="1">
-        <v>30010001</v>
-      </c>
-      <c r="Y22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>30010001</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="2:26">
-      <c r="B23" s="1">
-        <v>30010101</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="U23" s="1">
-        <v>30010101</v>
-      </c>
-      <c r="Y23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>30010101</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="2:26">
-      <c r="B24" s="1">
-        <v>31000001</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S24" s="1">
-        <v>333</v>
-      </c>
-      <c r="U24" s="1">
-        <v>31000001</v>
-      </c>
-      <c r="Y24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>31000001</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="2:26">
-      <c r="B25" s="5">
-        <v>32000001</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="U25" s="5">
-        <v>32000001</v>
-      </c>
-      <c r="Y25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="5">
-        <v>32000001</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="2:26">
-      <c r="B26" s="1">
-        <v>33000001</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0</v>
-      </c>
-      <c r="U26" s="1">
-        <v>33000001</v>
-      </c>
-      <c r="Y26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>33000001</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="2:26">
-      <c r="B27" s="1">
-        <v>39000001</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G27" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1">
-        <v>39000001</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W27" s="1">
-        <v>39000001</v>
-      </c>
-      <c r="Y27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>39000001</v>
-      </c>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="2:29">
-      <c r="B28" s="3">
-        <v>40000101</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="S28" s="1">
-        <v>333</v>
-      </c>
-      <c r="U28" s="3">
-        <v>40000101</v>
-      </c>
-      <c r="Y28" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>40000101</v>
-      </c>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="2:26">
-      <c r="B29" s="1">
-        <v>40000001</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S29" s="1">
-        <v>333</v>
-      </c>
-      <c r="U29" s="1">
-        <v>40000001</v>
-      </c>
-      <c r="Y29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>40000001</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="2:26">
-      <c r="B30" s="1">
-        <v>40010001</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S30" s="1">
-        <v>333</v>
-      </c>
-      <c r="U30" s="1">
-        <v>40010001</v>
-      </c>
-      <c r="Y30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>40010001</v>
-      </c>
-    </row>
-    <row r="31" s="3" customFormat="1" spans="2:29">
-      <c r="B31" s="3">
-        <v>40020001</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="S31" s="3">
-        <v>333</v>
-      </c>
-      <c r="U31" s="3">
-        <v>40020001</v>
-      </c>
-      <c r="Y31" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="3">
-        <v>40020001</v>
-      </c>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="2:26">
-      <c r="B32" s="1">
-        <v>41000001</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S32" s="1">
-        <v>333</v>
-      </c>
-      <c r="U32" s="1">
-        <v>41000001</v>
-      </c>
-      <c r="Y32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>41000001</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="2:26">
-      <c r="B33" s="1">
-        <v>49000001</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S33" s="1">
-        <v>333</v>
-      </c>
-      <c r="U33" s="1">
-        <v>49000001</v>
-      </c>
-      <c r="Y33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>49000001</v>
-      </c>
-    </row>
-    <row r="34" s="3" customFormat="1" spans="2:29">
-      <c r="B34" s="3">
-        <v>92000001</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S34" s="1">
-        <v>333</v>
-      </c>
-      <c r="U34" s="3">
-        <v>92000001</v>
-      </c>
-      <c r="Y34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="3">
-        <v>92000001</v>
-      </c>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-    </row>
-    <row r="35" s="3" customFormat="1" spans="2:29">
-      <c r="B35" s="3">
-        <v>92010001</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S35" s="1">
-        <v>333</v>
-      </c>
-      <c r="U35" s="3">
-        <v>92010001</v>
-      </c>
-      <c r="Y35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>92010001</v>
-      </c>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="2:26">
-      <c r="B36" s="3">
-        <v>92020001</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S36" s="1">
-        <v>0</v>
-      </c>
-      <c r="U36" s="3">
-        <v>92020001</v>
-      </c>
-      <c r="Y36" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="3">
-        <v>92020001</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="2:26">
-      <c r="B37" s="3">
-        <v>92020002</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S37" s="1">
-        <v>0</v>
-      </c>
-      <c r="U37" s="3">
-        <v>92020002</v>
-      </c>
-      <c r="Y37" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="3">
+      <c r="Z15" s="3">
         <v>92020002</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -182,6 +182,9 @@
     <t>bool</t>
   </si>
   <si>
+    <t>int32#ref=TbSearch?</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -297,9 +300,6 @@
   </si>
   <si>
     <t>使用水瓶</t>
-  </si>
-  <si>
-    <t>全局随机生成水滴</t>
   </si>
   <si>
     <t>干旱降低水塔速度</t>
@@ -485,13 +485,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -1305,10 +1305,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1335,7 +1335,7 @@
     <col min="23" max="23" width="10.8571428571429" style="1" customWidth="1"/>
     <col min="24" max="24" width="10.7142857142857" style="1" customWidth="1"/>
     <col min="25" max="25" width="17.1428571428571" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.9285714285714" style="1" customWidth="1"/>
+    <col min="26" max="26" width="21.4285714285714" style="1" customWidth="1"/>
     <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1480,95 +1480,95 @@
         <v>30</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="16.8" customHeight="1" spans="1:26">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:26">
       <c r="B4" s="1">
-        <v>10000001</v>
+        <v>10010001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1577,10 +1577,10 @@
         <v>10000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="1">
         <v>667</v>
@@ -1589,21 +1589,21 @@
         <v>333</v>
       </c>
       <c r="U4" s="1">
-        <v>10000001</v>
+        <v>10010001</v>
       </c>
       <c r="Y4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="Z4" s="1">
-        <v>10000001</v>
+        <v>10010001</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:26">
       <c r="B5" s="1">
-        <v>10000101</v>
+        <v>10010101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -1615,10 +1615,10 @@
         <v>10000</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="1">
         <v>667</v>
@@ -1627,21 +1627,21 @@
         <v>333</v>
       </c>
       <c r="U5" s="1">
-        <v>10000101</v>
+        <v>10010101</v>
       </c>
       <c r="Y5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>10000101</v>
+        <v>10010101</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:26">
       <c r="B6" s="1">
-        <v>10000201</v>
+        <v>10010201</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -1653,10 +1653,10 @@
         <v>10000</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="1">
         <v>667</v>
@@ -1665,13 +1665,13 @@
         <v>333</v>
       </c>
       <c r="U6" s="1">
-        <v>10000201</v>
+        <v>10010201</v>
       </c>
       <c r="Y6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>10000201</v>
+        <v>10010201</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:26">
@@ -1679,13 +1679,13 @@
         <v>30010001</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G7" s="1">
         <v>10000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="1">
         <v>1000</v>
@@ -1708,13 +1708,13 @@
         <v>30020001</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G8" s="1">
         <v>10000</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>30030001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G9" s="1">
         <v>10000</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
@@ -1760,16 +1760,16 @@
         <v>40000001</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="1">
         <v>10000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="1">
         <v>1000</v>
@@ -1792,13 +1792,13 @@
         <v>40000101</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="3">
         <v>10000</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S11" s="1">
         <v>333</v>
@@ -1821,13 +1821,13 @@
         <v>92000001</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="3">
         <v>10000</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S12" s="1">
         <v>333</v>
@@ -1850,13 +1850,13 @@
         <v>92010001</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="3">
         <v>10000</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S13" s="1">
         <v>333</v>
@@ -1876,53 +1876,27 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="2:26">
       <c r="B14" s="3">
-        <v>92020001</v>
+        <v>92020002</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="3">
         <v>10000</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S14" s="1">
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>92020001</v>
+        <v>92020002</v>
       </c>
       <c r="Y14" s="3" t="b">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
-        <v>92020001</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="2:26">
-      <c r="B15" s="3">
-        <v>92020002</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>92020002</v>
-      </c>
-      <c r="Y15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
         <v>92020002</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -284,6 +284,9 @@
     <t>添加攻速BUFF</t>
   </si>
   <si>
+    <t>资源塔</t>
+  </si>
+  <si>
     <t>普通攻击植物-普攻</t>
   </si>
   <si>
@@ -300,9 +303,6 @@
   </si>
   <si>
     <t>使用水瓶</t>
-  </si>
-  <si>
-    <t>干旱降低水塔速度</t>
   </si>
 </sst>
 </file>
@@ -1307,8 +1307,8 @@
   <sheetPr/>
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="2:26">
       <c r="B10" s="1">
-        <v>40000001</v>
+        <v>30040001</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>65</v>
@@ -1768,78 +1768,75 @@
       <c r="H10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>1000</v>
-      </c>
       <c r="S10" s="1">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>40000001</v>
+        <v>30040001</v>
       </c>
       <c r="Y10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Z10" s="1">
+        <v>30040001</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:26">
+      <c r="B11" s="1">
         <v>40000001</v>
       </c>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="2:29">
-      <c r="B11" s="3">
-        <v>40000101</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>68</v>
+      <c r="Q11" s="1">
+        <v>1000</v>
       </c>
       <c r="S11" s="1">
         <v>333</v>
       </c>
-      <c r="U11" s="3">
-        <v>40000101</v>
-      </c>
-      <c r="Y11" s="3" t="b">
+      <c r="U11" s="1">
+        <v>40000001</v>
+      </c>
+      <c r="Y11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z11" s="3">
-        <v>40000101</v>
-      </c>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
+      <c r="Z11" s="1">
+        <v>40000001</v>
+      </c>
     </row>
     <row r="12" s="3" customFormat="1" spans="2:29">
       <c r="B12" s="3">
-        <v>92000001</v>
+        <v>40000101</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="3">
         <v>10000</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>59</v>
+      <c r="H12" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="S12" s="1">
         <v>333</v>
       </c>
       <c r="U12" s="3">
-        <v>92000001</v>
+        <v>40000101</v>
       </c>
       <c r="Y12" s="3" t="b">
         <v>0</v>
       </c>
       <c r="Z12" s="3">
-        <v>92000001</v>
+        <v>40000101</v>
       </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -1847,7 +1844,7 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="2:29">
       <c r="B13" s="3">
-        <v>92010001</v>
+        <v>92000001</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>70</v>
@@ -1862,23 +1859,23 @@
         <v>333</v>
       </c>
       <c r="U13" s="3">
-        <v>92010001</v>
+        <v>92000001</v>
       </c>
       <c r="Y13" s="3" t="b">
         <v>0</v>
       </c>
       <c r="Z13" s="3">
-        <v>92010001</v>
+        <v>92000001</v>
       </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="2:26">
+    <row r="14" s="3" customFormat="1" spans="2:29">
       <c r="B14" s="3">
-        <v>92020002</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>92010001</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G14" s="3">
@@ -1888,17 +1885,20 @@
         <v>59</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="U14" s="3">
-        <v>92020002</v>
+        <v>92010001</v>
       </c>
       <c r="Y14" s="3" t="b">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
-        <v>92020002</v>
-      </c>
+        <v>92010001</v>
+      </c>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17560"/>
+    <workbookView windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -260,7 +260,7 @@
     <t>普攻</t>
   </si>
   <si>
-    <t>attack_01</t>
+    <t>Attack</t>
   </si>
   <si>
     <t>英雄1000，添加攻速BUFF</t>
@@ -269,7 +269,7 @@
     <t>主动</t>
   </si>
   <si>
-    <t>skill_01</t>
+    <t>Skill</t>
   </si>
   <si>
     <t>英雄1000，3目标子弹伤害</t>
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t>普通攻击植物-普攻</t>
-  </si>
-  <si>
-    <t>AllSkill001_Release</t>
   </si>
   <si>
     <t>普通攻击植物-死亡自爆</t>
@@ -1307,8 +1304,8 @@
   <sheetPr/>
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1583,10 +1580,10 @@
         <v>57</v>
       </c>
       <c r="Q4" s="1">
-        <v>667</v>
+        <v>2767</v>
       </c>
       <c r="S4" s="1">
-        <v>333</v>
+        <v>1000</v>
       </c>
       <c r="U4" s="1">
         <v>10010001</v>
@@ -1621,10 +1618,10 @@
         <v>60</v>
       </c>
       <c r="Q5" s="1">
-        <v>667</v>
+        <v>1167</v>
       </c>
       <c r="S5" s="1">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="U5" s="1">
         <v>10010101</v>
@@ -1659,10 +1656,10 @@
         <v>60</v>
       </c>
       <c r="Q6" s="1">
-        <v>667</v>
+        <v>1167</v>
       </c>
       <c r="S6" s="1">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="U6" s="1">
         <v>10010201</v>
@@ -1687,11 +1684,14 @@
       <c r="H7" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="N7" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="Q7" s="1">
+        <v>2767</v>
+      </c>
+      <c r="S7" s="1">
         <v>1000</v>
-      </c>
-      <c r="S7" s="1">
-        <v>333</v>
       </c>
       <c r="U7" s="1">
         <v>30010001</v>
@@ -1716,8 +1716,14 @@
       <c r="H8" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="N8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2767</v>
+      </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="U8" s="5">
         <v>30020001</v>
@@ -1742,8 +1748,14 @@
       <c r="H9" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="N9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>2767</v>
+      </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="U9" s="1">
         <v>30030001</v>
@@ -1768,8 +1780,14 @@
       <c r="H10" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="N10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>2767</v>
+      </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="U10" s="1">
         <v>30040001</v>
@@ -1795,13 +1813,13 @@
         <v>56</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="1">
+        <v>2767</v>
+      </c>
+      <c r="S11" s="1">
         <v>1000</v>
-      </c>
-      <c r="S11" s="1">
-        <v>333</v>
       </c>
       <c r="U11" s="1">
         <v>40000001</v>
@@ -1818,16 +1836,22 @@
         <v>40000101</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="3">
         <v>10000</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1167</v>
       </c>
       <c r="S12" s="1">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="U12" s="3">
         <v>40000101</v>
@@ -1847,7 +1871,7 @@
         <v>92000001</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="3">
         <v>10000</v>
@@ -1876,7 +1900,7 @@
         <v>92010001</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" s="3">
         <v>10000</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowHeight="23960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
+    <author>stone</author>
   </authors>
   <commentList>
     <comment ref="E3" authorId="0">
@@ -65,6 +66,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+动作时长-200
+200用来做动作融合</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Y3" authorId="0">
       <text>
         <r>
@@ -312,7 +327,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +495,11 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1305,7 +1325,7 @@
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1580,7 +1600,7 @@
         <v>57</v>
       </c>
       <c r="Q4" s="1">
-        <v>2767</v>
+        <v>2567</v>
       </c>
       <c r="S4" s="1">
         <v>1000</v>
@@ -1618,7 +1638,7 @@
         <v>60</v>
       </c>
       <c r="Q5" s="1">
-        <v>1167</v>
+        <v>967</v>
       </c>
       <c r="S5" s="1">
         <v>500</v>
@@ -1656,7 +1676,7 @@
         <v>60</v>
       </c>
       <c r="Q6" s="1">
-        <v>1167</v>
+        <v>967</v>
       </c>
       <c r="S6" s="1">
         <v>500</v>
@@ -1688,7 +1708,7 @@
         <v>57</v>
       </c>
       <c r="Q7" s="1">
-        <v>2767</v>
+        <v>2567</v>
       </c>
       <c r="S7" s="1">
         <v>1000</v>
@@ -1697,7 +1717,7 @@
         <v>30010001</v>
       </c>
       <c r="Y7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>30010001</v>
@@ -1720,7 +1740,7 @@
         <v>57</v>
       </c>
       <c r="Q8" s="1">
-        <v>2767</v>
+        <v>2567</v>
       </c>
       <c r="S8" s="1">
         <v>1000</v>
@@ -1749,13 +1769,13 @@
         <v>56</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="1">
-        <v>2767</v>
+        <v>967</v>
       </c>
       <c r="S9" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="U9" s="1">
         <v>30030001</v>
@@ -1784,7 +1804,7 @@
         <v>57</v>
       </c>
       <c r="Q10" s="1">
-        <v>2767</v>
+        <v>2567</v>
       </c>
       <c r="S10" s="1">
         <v>1000</v>
@@ -1816,7 +1836,7 @@
         <v>57</v>
       </c>
       <c r="Q11" s="1">
-        <v>2767</v>
+        <v>2567</v>
       </c>
       <c r="S11" s="1">
         <v>1000</v>
@@ -1847,8 +1867,8 @@
       <c r="N12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Q12" s="3">
-        <v>1167</v>
+      <c r="Q12" s="1">
+        <v>967</v>
       </c>
       <c r="S12" s="1">
         <v>500</v>
@@ -1857,7 +1877,7 @@
         <v>40000101</v>
       </c>
       <c r="Y12" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="3">
         <v>40000101</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23960"/>
+    <workbookView windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -191,6 +191,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>int#ref=TbEffect</t>
+  </si>
+  <si>
     <t>EGroupCompletedType</t>
   </si>
   <si>
@@ -300,6 +303,12 @@
   </si>
   <si>
     <t>资源塔</t>
+  </si>
+  <si>
+    <t>资源塔消耗木材产出金币</t>
+  </si>
+  <si>
+    <t>队伍属性</t>
   </si>
   <si>
     <t>普通攻击植物-普攻</t>
@@ -502,12 +511,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -516,6 +519,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1322,10 +1331,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1484,100 +1493,100 @@
       </c>
       <c r="T2" s="6"/>
       <c r="U2" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="X2" s="6"/>
       <c r="Y2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="16.8" customHeight="1" spans="1:26">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:26">
@@ -1585,7 +1594,7 @@
         <v>10010001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1594,10 +1603,10 @@
         <v>10000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="1">
         <v>2567</v>
@@ -1620,7 +1629,7 @@
         <v>10010101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -1632,10 +1641,10 @@
         <v>10000</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="1">
         <v>967</v>
@@ -1658,7 +1667,7 @@
         <v>10010201</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -1670,10 +1679,10 @@
         <v>10000</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="1">
         <v>967</v>
@@ -1696,16 +1705,16 @@
         <v>30010001</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1">
         <v>10000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="1">
         <v>2567</v>
@@ -1728,16 +1737,16 @@
         <v>30020001</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8" s="1">
         <v>10000</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="1">
         <v>2567</v>
@@ -1760,16 +1769,16 @@
         <v>30030001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" s="1">
         <v>10000</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="1">
         <v>967</v>
@@ -1792,16 +1801,16 @@
         <v>30040001</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G10" s="1">
         <v>10000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="1">
         <v>2567</v>
@@ -1821,95 +1830,99 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="2:26">
       <c r="B11" s="1">
-        <v>40000001</v>
+        <v>30040101</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1000</v>
       </c>
       <c r="G11" s="1">
         <v>10000</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>2567</v>
-      </c>
-      <c r="S11" s="1">
-        <v>1000</v>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="1">
+        <v>981</v>
+      </c>
+      <c r="K11" s="1">
+        <v>10000</v>
       </c>
       <c r="U11" s="1">
-        <v>40000001</v>
+        <v>30040101</v>
       </c>
       <c r="Y11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Z11" s="1">
+        <v>97010002</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:26">
+      <c r="B12" s="1">
         <v>40000001</v>
       </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="2:29">
-      <c r="B12" s="3">
-        <v>40000101</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="1">
         <v>10000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>60</v>
+      <c r="H12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="Q12" s="1">
-        <v>967</v>
+        <v>2567</v>
       </c>
       <c r="S12" s="1">
-        <v>500</v>
-      </c>
-      <c r="U12" s="3">
-        <v>40000101</v>
-      </c>
-      <c r="Y12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>40000101</v>
-      </c>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
+        <v>1000</v>
+      </c>
+      <c r="U12" s="1">
+        <v>40000001</v>
+      </c>
+      <c r="Y12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>40000001</v>
+      </c>
     </row>
     <row r="13" s="3" customFormat="1" spans="2:29">
       <c r="B13" s="3">
-        <v>92000001</v>
+        <v>40000101</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="3">
         <v>10000</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>59</v>
+      <c r="H13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>967</v>
       </c>
       <c r="S13" s="1">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="U13" s="3">
-        <v>92000001</v>
+        <v>40000101</v>
       </c>
       <c r="Y13" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="3">
-        <v>92000001</v>
+        <v>40000101</v>
       </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -1917,32 +1930,61 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="2:29">
       <c r="B14" s="3">
-        <v>92010001</v>
+        <v>92000001</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14" s="3">
         <v>10000</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S14" s="1">
         <v>333</v>
       </c>
       <c r="U14" s="3">
-        <v>92010001</v>
+        <v>92000001</v>
       </c>
       <c r="Y14" s="3" t="b">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
-        <v>92010001</v>
+        <v>92000001</v>
       </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="2:29">
+      <c r="B15" s="3">
+        <v>92010001</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S15" s="1">
+        <v>333</v>
+      </c>
+      <c r="U15" s="3">
+        <v>92010001</v>
+      </c>
+      <c r="Y15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>92010001</v>
+      </c>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>英雄1000，3目标子弹伤害</t>
+  </si>
+  <si>
+    <t>大本营普攻</t>
   </si>
   <si>
     <t>防御塔普攻</t>
@@ -506,11 +509,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -520,11 +518,16 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1331,10 +1334,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1702,7 +1705,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="2:26">
       <c r="B7" s="1">
-        <v>30010001</v>
+        <v>30000001</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>63</v>
@@ -1713,28 +1716,19 @@
       <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>2567</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1000</v>
-      </c>
       <c r="U7" s="1">
-        <v>30010001</v>
+        <v>30000001</v>
       </c>
       <c r="Y7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>30010001</v>
+        <v>30000001</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:26">
-      <c r="B8" s="5">
-        <v>30020001</v>
+      <c r="B8" s="1">
+        <v>30010001</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>64</v>
@@ -1754,19 +1748,19 @@
       <c r="S8" s="1">
         <v>1000</v>
       </c>
-      <c r="U8" s="5">
-        <v>30020001</v>
+      <c r="U8" s="1">
+        <v>30010001</v>
       </c>
       <c r="Y8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z8" s="5">
-        <v>30020001</v>
+      <c r="Z8" s="1">
+        <v>30010001</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:26">
-      <c r="B9" s="1">
-        <v>30030001</v>
+      <c r="B9" s="5">
+        <v>30020001</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>65</v>
@@ -1778,27 +1772,27 @@
         <v>57</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="1">
-        <v>967</v>
+        <v>2567</v>
       </c>
       <c r="S9" s="1">
-        <v>500</v>
-      </c>
-      <c r="U9" s="1">
-        <v>30030001</v>
+        <v>1000</v>
+      </c>
+      <c r="U9" s="5">
+        <v>30020001</v>
       </c>
       <c r="Y9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z9" s="1">
-        <v>30030001</v>
+      <c r="Z9" s="5">
+        <v>30020001</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:26">
       <c r="B10" s="1">
-        <v>30040001</v>
+        <v>30030001</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>66</v>
@@ -1810,148 +1804,150 @@
         <v>57</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="1">
-        <v>2567</v>
+        <v>967</v>
       </c>
       <c r="S10" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="U10" s="1">
-        <v>30040001</v>
+        <v>30030001</v>
       </c>
       <c r="Y10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>30040001</v>
+        <v>30030001</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:26">
       <c r="B11" s="1">
-        <v>30040101</v>
+        <v>30040001</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="1">
-        <v>1000</v>
-      </c>
       <c r="G11" s="1">
         <v>10000</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="1">
-        <v>981</v>
-      </c>
-      <c r="K11" s="1">
-        <v>10000</v>
+      <c r="H11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2567</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1000</v>
       </c>
       <c r="U11" s="1">
-        <v>30040101</v>
+        <v>30040001</v>
       </c>
       <c r="Y11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>97010002</v>
+        <v>30040001</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:26">
       <c r="B12" s="1">
-        <v>40000001</v>
+        <v>30040101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1000</v>
       </c>
       <c r="G12" s="1">
         <v>10000</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>2567</v>
-      </c>
-      <c r="S12" s="1">
-        <v>1000</v>
+      <c r="I12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="1">
+        <v>981</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10000</v>
       </c>
       <c r="U12" s="1">
-        <v>40000001</v>
+        <v>30040101</v>
       </c>
       <c r="Y12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Z12" s="1">
+        <v>97010002</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:26">
+      <c r="B13" s="1">
         <v>40000001</v>
       </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="2:29">
-      <c r="B13" s="3">
-        <v>40000101</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>10000</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>61</v>
+      <c r="H13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="Q13" s="1">
-        <v>967</v>
+        <v>2567</v>
       </c>
       <c r="S13" s="1">
-        <v>500</v>
-      </c>
-      <c r="U13" s="3">
-        <v>40000101</v>
-      </c>
-      <c r="Y13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>40000101</v>
-      </c>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
+        <v>1000</v>
+      </c>
+      <c r="U13" s="1">
+        <v>40000001</v>
+      </c>
+      <c r="Y13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>40000001</v>
+      </c>
     </row>
     <row r="14" s="3" customFormat="1" spans="2:29">
       <c r="B14" s="3">
-        <v>92000001</v>
+        <v>40000101</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="3">
         <v>10000</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>60</v>
+      <c r="H14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>967</v>
       </c>
       <c r="S14" s="1">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="U14" s="3">
-        <v>92000001</v>
+        <v>40000101</v>
       </c>
       <c r="Y14" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="3">
-        <v>92000001</v>
+        <v>40000101</v>
       </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -1959,7 +1955,7 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="2:29">
       <c r="B15" s="3">
-        <v>92010001</v>
+        <v>92000001</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>73</v>
@@ -1974,17 +1970,46 @@
         <v>333</v>
       </c>
       <c r="U15" s="3">
-        <v>92010001</v>
+        <v>92000001</v>
       </c>
       <c r="Y15" s="3" t="b">
         <v>0</v>
       </c>
       <c r="Z15" s="3">
-        <v>92010001</v>
+        <v>92000001</v>
       </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="2:29">
+      <c r="B16" s="3">
+        <v>92010001</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S16" s="1">
+        <v>333</v>
+      </c>
+      <c r="U16" s="3">
+        <v>92010001</v>
+      </c>
+      <c r="Y16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>92010001</v>
+      </c>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -509,6 +509,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -518,16 +523,11 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1336,8 +1336,8 @@
   <sheetPr/>
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J7" sqref="$A7:$XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1743,10 +1743,10 @@
         <v>58</v>
       </c>
       <c r="Q8" s="1">
-        <v>2567</v>
+        <v>200</v>
       </c>
       <c r="S8" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="U8" s="1">
         <v>30010001</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowWidth="28000" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
   <si>
     <t>##var</t>
   </si>
@@ -296,16 +296,28 @@
     <t>大本营普攻</t>
   </si>
   <si>
-    <t>防御塔普攻</t>
-  </si>
-  <si>
-    <t>兵营A召唤</t>
-  </si>
-  <si>
-    <t>添加攻速BUFF</t>
-  </si>
-  <si>
-    <t>资源塔</t>
+    <t>TowerCircle</t>
+  </si>
+  <si>
+    <t>TowerFlower4 资源</t>
+  </si>
+  <si>
+    <t>TowerFlower5 加成</t>
+  </si>
+  <si>
+    <t>TowerHexagon 学习</t>
+  </si>
+  <si>
+    <t>TowerSnowflake</t>
+  </si>
+  <si>
+    <t>TowerSquare</t>
+  </si>
+  <si>
+    <t>TowerStar</t>
+  </si>
+  <si>
+    <t>TowerTriangle</t>
   </si>
   <si>
     <t>资源塔消耗木材产出金币</t>
@@ -538,12 +550,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -868,7 +886,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,16 +910,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -910,85 +928,85 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1000,19 +1018,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1334,10 +1352,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC16"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U7:U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1369,172 +1387,172 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:26">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="6"/>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="T1" s="6"/>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="W1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="X1" s="6"/>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:26">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="6"/>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="T2" s="6"/>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="X2" s="6"/>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="16.8" customHeight="1" spans="1:26">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -1573,7 +1591,7 @@
       <c r="T3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="5" t="s">
         <v>51</v>
       </c>
       <c r="V3" s="7" t="s">
@@ -1739,15 +1757,6 @@
       <c r="H8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>200</v>
-      </c>
-      <c r="S8" s="1">
-        <v>100</v>
-      </c>
       <c r="U8" s="1">
         <v>30010001</v>
       </c>
@@ -1755,11 +1764,11 @@
         <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>30010001</v>
+        <v>97030002</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:26">
-      <c r="B9" s="5">
+      <c r="B9" s="1">
         <v>30020001</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1771,23 +1780,14 @@
       <c r="H9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>2567</v>
-      </c>
-      <c r="S9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="U9" s="5">
+      <c r="U9" s="1">
         <v>30020001</v>
       </c>
       <c r="Y9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z9" s="5">
-        <v>30020001</v>
+      <c r="Z9" s="1">
+        <v>97020001</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:26">
@@ -1803,15 +1803,6 @@
       <c r="H10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>967</v>
-      </c>
-      <c r="S10" s="1">
-        <v>500</v>
-      </c>
       <c r="U10" s="1">
         <v>30030001</v>
       </c>
@@ -1835,15 +1826,6 @@
       <c r="H11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>2567</v>
-      </c>
-      <c r="S11" s="1">
-        <v>1000</v>
-      </c>
       <c r="U11" s="1">
         <v>30040001</v>
       </c>
@@ -1851,47 +1833,38 @@
         <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>30040001</v>
+        <v>97030001</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:26">
       <c r="B12" s="1">
-        <v>30040101</v>
+        <v>30050001</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="1">
-        <v>1000</v>
-      </c>
       <c r="G12" s="1">
         <v>10000</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="1">
-        <v>981</v>
-      </c>
-      <c r="K12" s="1">
-        <v>10000</v>
+      <c r="H12" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="U12" s="1">
-        <v>30040101</v>
+        <v>30050001</v>
       </c>
       <c r="Y12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>97010002</v>
+        <v>97030001</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="2:26">
       <c r="B13" s="1">
-        <v>40000001</v>
+        <v>30060001</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="1">
         <v>10000</v>
@@ -1899,117 +1872,215 @@
       <c r="H13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>2567</v>
-      </c>
-      <c r="S13" s="1">
-        <v>1000</v>
-      </c>
       <c r="U13" s="1">
-        <v>40000001</v>
+        <v>30060001</v>
       </c>
       <c r="Y13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>40000001</v>
+        <v>30060001</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="2:29">
-      <c r="B14" s="3">
-        <v>40000101</v>
-      </c>
-      <c r="C14" s="3" t="s">
+    <row r="14" s="1" customFormat="1" spans="2:26">
+      <c r="B14" s="1">
+        <v>30070001</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" s="1">
+        <v>30070001</v>
+      </c>
+      <c r="Y14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>97030001</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="2:26">
+      <c r="B15" s="1">
+        <v>30080001</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="1">
         <v>10000</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" s="1">
+        <v>30080001</v>
+      </c>
+      <c r="Y15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>97030001</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="2:26">
+      <c r="B16" s="3">
+        <v>40040101</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>967</v>
-      </c>
-      <c r="S14" s="1">
-        <v>500</v>
-      </c>
-      <c r="U14" s="3">
-        <v>40000101</v>
-      </c>
-      <c r="Y14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>40000101</v>
-      </c>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="2:29">
-      <c r="B15" s="3">
-        <v>92000001</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S15" s="1">
-        <v>333</v>
-      </c>
-      <c r="U15" s="3">
-        <v>92000001</v>
-      </c>
-      <c r="Y15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>92000001</v>
-      </c>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="2:29">
-      <c r="B16" s="3">
-        <v>92010001</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>74</v>
+      <c r="F16" s="3">
+        <v>1000</v>
       </c>
       <c r="G16" s="3">
         <v>10000</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S16" s="1">
-        <v>333</v>
+      <c r="I16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="3">
+        <v>981</v>
+      </c>
+      <c r="K16" s="3">
+        <v>10000</v>
       </c>
       <c r="U16" s="3">
-        <v>92010001</v>
+        <v>30040101</v>
       </c>
       <c r="Y16" s="3" t="b">
         <v>0</v>
       </c>
       <c r="Z16" s="3">
+        <v>97010002</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="2:26">
+      <c r="B17" s="3">
+        <v>40000001</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>2567</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U17" s="3">
+        <v>40000001</v>
+      </c>
+      <c r="Y17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>40000001</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="2:26">
+      <c r="B18" s="3">
+        <v>40000101</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>967</v>
+      </c>
+      <c r="S18" s="3">
+        <v>500</v>
+      </c>
+      <c r="U18" s="3">
+        <v>40000101</v>
+      </c>
+      <c r="Y18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>40000101</v>
+      </c>
+    </row>
+    <row r="19" s="4" customFormat="1" spans="2:29">
+      <c r="B19" s="4">
+        <v>92000001</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S19" s="1">
+        <v>333</v>
+      </c>
+      <c r="U19" s="4">
+        <v>92000001</v>
+      </c>
+      <c r="Y19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>92000001</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" s="4" customFormat="1" spans="2:29">
+      <c r="B20" s="4">
         <v>92010001</v>
       </c>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
+      <c r="C20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S20" s="1">
+        <v>333</v>
+      </c>
+      <c r="U20" s="4">
+        <v>92010001</v>
+      </c>
+      <c r="Y20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>92010001</v>
+      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15820"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -522,8 +522,9 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -535,11 +536,10 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1354,8 +1354,8 @@
   <sheetPr/>
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U7:U15"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1983,13 +1983,13 @@
         <v>1000</v>
       </c>
       <c r="U17" s="3">
-        <v>40000001</v>
+        <v>40010001</v>
       </c>
       <c r="Y17" s="3" t="b">
         <v>0</v>
       </c>
       <c r="Z17" s="3">
-        <v>40000001</v>
+        <v>40010001</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="2:26">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowHeight="18200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -536,12 +536,12 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -1354,8 +1354,8 @@
   <sheetPr/>
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>30060001</v>
+        <v>97020001</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:26">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -191,9 +191,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>int#ref=TbEffect</t>
-  </si>
-  <si>
     <t>EGroupCompletedType</t>
   </si>
   <si>
@@ -333,12 +330,6 @@
   </si>
   <si>
     <t>死亡</t>
-  </si>
-  <si>
-    <t>使用血瓶</t>
-  </si>
-  <si>
-    <t>使用水瓶</t>
   </si>
 </sst>
 </file>
@@ -521,12 +512,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -536,12 +521,18 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1010,7 +1001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1019,9 +1010,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1352,10 +1340,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1387,227 +1375,227 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:26">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="5" t="s">
+      <c r="T1" s="5"/>
+      <c r="U1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="5" t="s">
+      <c r="X1" s="5"/>
+      <c r="Y1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:26">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="5" t="s">
+      <c r="T2" s="5"/>
+      <c r="U2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="16.8" customHeight="1" spans="1:26">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Z3" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:26">
@@ -1615,7 +1603,7 @@
         <v>10010001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1624,10 +1612,10 @@
         <v>10000</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="Q4" s="1">
         <v>2567</v>
@@ -1650,7 +1638,7 @@
         <v>10010101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -1662,10 +1650,10 @@
         <v>10000</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="Q5" s="1">
         <v>967</v>
@@ -1688,7 +1676,7 @@
         <v>10010201</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -1700,10 +1688,10 @@
         <v>10000</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="Q6" s="1">
         <v>967</v>
@@ -1726,13 +1714,13 @@
         <v>30000001</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="1">
         <v>10000</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U7" s="1">
         <v>30000001</v>
@@ -1749,13 +1737,13 @@
         <v>30010001</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="1">
         <v>10000</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U8" s="1">
         <v>30010001</v>
@@ -1772,13 +1760,13 @@
         <v>30020001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="1">
         <v>10000</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U9" s="1">
         <v>30020001</v>
@@ -1795,13 +1783,13 @@
         <v>30030001</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="1">
         <v>10000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U10" s="1">
         <v>30030001</v>
@@ -1818,13 +1806,13 @@
         <v>30040001</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1">
         <v>10000</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U11" s="1">
         <v>30040001</v>
@@ -1841,13 +1829,13 @@
         <v>30050001</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="1">
         <v>10000</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U12" s="1">
         <v>30050001</v>
@@ -1864,13 +1852,13 @@
         <v>30060001</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="1">
         <v>10000</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U13" s="1">
         <v>30060001</v>
@@ -1887,13 +1875,13 @@
         <v>30070001</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="1">
         <v>10000</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U14" s="1">
         <v>30070001</v>
@@ -1910,13 +1898,13 @@
         <v>30080001</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="1">
         <v>10000</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U15" s="1">
         <v>30080001</v>
@@ -1933,7 +1921,7 @@
         <v>40040101</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="3">
         <v>1000</v>
@@ -1942,7 +1930,7 @@
         <v>10000</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J16" s="3">
         <v>981</v>
@@ -1965,16 +1953,16 @@
         <v>40000001</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="3">
         <v>10000</v>
       </c>
       <c r="H17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="Q17" s="3">
         <v>2567</v>
@@ -1997,16 +1985,16 @@
         <v>40000101</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="3">
         <v>10000</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q18" s="3">
         <v>967</v>
@@ -2023,64 +2011,6 @@
       <c r="Z18" s="3">
         <v>40000101</v>
       </c>
-    </row>
-    <row r="19" s="4" customFormat="1" spans="2:29">
-      <c r="B19" s="4">
-        <v>92000001</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="4">
-        <v>10000</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S19" s="1">
-        <v>333</v>
-      </c>
-      <c r="U19" s="4">
-        <v>92000001</v>
-      </c>
-      <c r="Y19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="4">
-        <v>92000001</v>
-      </c>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-    </row>
-    <row r="20" s="4" customFormat="1" spans="2:29">
-      <c r="B20" s="4">
-        <v>92010001</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="4">
-        <v>10000</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S20" s="1">
-        <v>333</v>
-      </c>
-      <c r="U20" s="4">
-        <v>92010001</v>
-      </c>
-      <c r="Y20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="4">
-        <v>92010001</v>
-      </c>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18200"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>TowerFlower5 加成</t>
+  </si>
+  <si>
+    <t>CD</t>
   </si>
   <si>
     <t>TowerHexagon 学习</t>
@@ -512,18 +515,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -1343,7 +1346,7 @@
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1644,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G5" s="1">
         <v>10000</v>
@@ -1682,7 +1685,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G6" s="1">
         <v>10000</v>
@@ -1785,11 +1788,14 @@
       <c r="C10" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="F10" s="1">
+        <v>500</v>
+      </c>
       <c r="G10" s="1">
         <v>10000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="U10" s="1">
         <v>30030001</v>
@@ -1806,7 +1812,7 @@
         <v>30040001</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1">
         <v>10000</v>
@@ -1829,7 +1835,7 @@
         <v>30050001</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1">
         <v>10000</v>
@@ -1852,7 +1858,7 @@
         <v>30060001</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G13" s="1">
         <v>10000</v>
@@ -1875,7 +1881,7 @@
         <v>30070001</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G14" s="1">
         <v>10000</v>
@@ -1898,7 +1904,7 @@
         <v>30080001</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G15" s="1">
         <v>10000</v>
@@ -1921,7 +1927,7 @@
         <v>40040101</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" s="3">
         <v>1000</v>
@@ -1930,7 +1936,7 @@
         <v>10000</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J16" s="3">
         <v>981</v>
@@ -1953,7 +1959,7 @@
         <v>40000001</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17" s="3">
         <v>10000</v>
@@ -1985,13 +1991,13 @@
         <v>40000101</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G18" s="3">
         <v>10000</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>60</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -1345,8 +1345,8 @@
   <sheetPr/>
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -320,19 +320,13 @@
     <t>TowerTriangle</t>
   </si>
   <si>
+    <t>基地边自爆</t>
+  </si>
+  <si>
     <t>资源塔消耗木材产出金币</t>
   </si>
   <si>
     <t>队伍属性</t>
-  </si>
-  <si>
-    <t>普通攻击植物-普攻</t>
-  </si>
-  <si>
-    <t>普通攻击植物-死亡自爆</t>
-  </si>
-  <si>
-    <t>死亡</t>
   </si>
 </sst>
 </file>
@@ -526,14 +520,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1343,10 +1337,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1922,100 +1916,100 @@
         <v>97030001</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="2:26">
-      <c r="B16" s="3">
+    <row r="17" s="1" customFormat="1" spans="2:26">
+      <c r="B17" s="1">
+        <v>40000001</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2567</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="U17" s="1">
+        <v>40010001</v>
+      </c>
+      <c r="Y17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>40010001</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:26">
+      <c r="B18" s="1">
+        <v>40000101</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>967</v>
+      </c>
+      <c r="S18" s="1">
+        <v>500</v>
+      </c>
+      <c r="U18" s="1">
+        <v>40000101</v>
+      </c>
+      <c r="Y18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>40000101</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="2:26">
+      <c r="B19" s="3">
         <v>40040101</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="C19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="3">
         <v>1000</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G19" s="3">
         <v>10000</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="I19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="3">
         <v>981</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K19" s="3">
         <v>10000</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U19" s="3">
         <v>30040101</v>
       </c>
-      <c r="Y16" s="3" t="b">
+      <c r="Y19" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z19" s="3">
         <v>97010002</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="2:26">
-      <c r="B17" s="3">
-        <v>40000001</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2567</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U17" s="3">
-        <v>40010001</v>
-      </c>
-      <c r="Y17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>40010001</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="2:26">
-      <c r="B18" s="3">
-        <v>40000101</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>967</v>
-      </c>
-      <c r="S18" s="3">
-        <v>500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>40000101</v>
-      </c>
-      <c r="Y18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>40000101</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -20,7 +20,7 @@
     <author>stone</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1">
+    <comment ref="P3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y3" authorId="0">
+    <comment ref="X3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>level_limit</t>
-  </si>
-  <si>
     <t>first_cd_time</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>解锁等级</t>
-  </si>
-  <si>
     <t>初始冷却时间</t>
   </si>
   <si>
@@ -290,7 +284,13 @@
     <t>英雄1000，3目标子弹伤害</t>
   </si>
   <si>
-    <t>大本营普攻</t>
+    <t>大本营 普攻</t>
+  </si>
+  <si>
+    <t>大本营 生产金币1个</t>
+  </si>
+  <si>
+    <t>CD</t>
   </si>
   <si>
     <t>TowerCircle</t>
@@ -300,9 +300,6 @@
   </si>
   <si>
     <t>TowerFlower5 加成</t>
-  </si>
-  <si>
-    <t>CD</t>
   </si>
   <si>
     <t>TowerHexagon 学习</t>
@@ -510,17 +507,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -530,6 +517,16 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -1013,10 +1010,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1337,10 +1334,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1348,30 +1345,29 @@
     <col min="1" max="1" width="7.64285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.9285714285714" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.7857142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85714285714286" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5714285714286" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7142857142857" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.03571428571429" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.21428571428571" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.3571428571429" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5714285714286" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7142857142857" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7857142857143" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.71428571428571" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1428571428571" style="1" customWidth="1"/>
-    <col min="19" max="20" width="9.82142857142857" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7142857142857" style="1" customWidth="1"/>
-    <col min="22" max="22" width="23.2857142857143" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.8571428571429" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7142857142857" style="1" customWidth="1"/>
-    <col min="25" max="25" width="17.1428571428571" style="1" customWidth="1"/>
-    <col min="26" max="26" width="21.4285714285714" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85714285714286" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.03571428571429" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21428571428571" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.3571428571429" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5714285714286" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7857142857143" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.71428571428571" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.1428571428571" style="1" customWidth="1"/>
+    <col min="18" max="19" width="9.82142857142857" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.2857142857143" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.8571428571429" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.7142857142857" style="1" customWidth="1"/>
+    <col min="24" max="24" width="17.1428571428571" style="1" customWidth="1"/>
+    <col min="25" max="25" width="21.4285714285714" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:26">
+    <row r="1" s="1" customFormat="1" spans="1:25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1394,13 +1390,13 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5"/>
       <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1419,46 +1415,43 @@
       <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="6"/>
+      <c r="T1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="5"/>
       <c r="U1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="6"/>
+      <c r="X1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="5"/>
       <c r="Y1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="4" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:25">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:26">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>23</v>
@@ -1466,560 +1459,571 @@
       <c r="H2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="5"/>
       <c r="L2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="6"/>
+      <c r="T2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="6"/>
+      <c r="X2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" s="5"/>
       <c r="Y2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="4" t="s">
+    </row>
+    <row r="3" s="2" customFormat="1" ht="16.8" customHeight="1" spans="1:25">
+      <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="16.8" customHeight="1" spans="1:26">
-      <c r="A3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:26">
+    <row r="4" s="1" customFormat="1" spans="2:25">
       <c r="B4" s="1">
         <v>10010001</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="1">
+      <c r="P4" s="1">
+        <v>2567</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T4" s="1">
+        <v>10010001</v>
+      </c>
+      <c r="X4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>2567</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="U4" s="1">
+      <c r="Y4" s="1">
         <v>10010001</v>
       </c>
-      <c r="Y4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>10010001</v>
-      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:26">
+    <row r="5" s="1" customFormat="1" spans="2:25">
       <c r="B5" s="1">
         <v>10010101</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="1">
+      <c r="P5" s="1">
         <v>967</v>
       </c>
-      <c r="S5" s="1">
+      <c r="R5" s="1">
         <v>500</v>
       </c>
-      <c r="U5" s="1">
+      <c r="T5" s="1">
         <v>10010101</v>
       </c>
-      <c r="Y5" s="1" t="b">
+      <c r="X5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Y5" s="1">
         <v>10010101</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:26">
+    <row r="6" s="1" customFormat="1" spans="2:25">
       <c r="B6" s="1">
         <v>10010201</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2000</v>
       </c>
       <c r="F6" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G6" s="1">
         <v>10000</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q6" s="1">
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="1">
         <v>967</v>
       </c>
-      <c r="S6" s="1">
+      <c r="R6" s="1">
         <v>500</v>
       </c>
-      <c r="U6" s="1">
+      <c r="T6" s="1">
         <v>10010201</v>
       </c>
-      <c r="Y6" s="1" t="b">
+      <c r="X6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Y6" s="1">
         <v>10010201</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="2:26">
+    <row r="7" s="1" customFormat="1" spans="2:25">
       <c r="B7" s="1">
         <v>30000001</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" s="1">
+        <v>30000001</v>
+      </c>
+      <c r="X7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>30000001</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:25">
+      <c r="B8" s="1">
+        <v>30001001</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="1">
+      <c r="T8" s="1">
+        <v>30001001</v>
+      </c>
+      <c r="X8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>97010004</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:25">
+      <c r="B9" s="1">
+        <v>30010001</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1">
         <v>10000</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U7" s="1">
-        <v>30000001</v>
-      </c>
-      <c r="Y7" s="1" t="b">
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" s="1">
+        <v>30010001</v>
+      </c>
+      <c r="X9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z7" s="1">
-        <v>30000001</v>
+      <c r="Y9" s="1">
+        <v>97030002</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="2:26">
-      <c r="B8" s="1">
-        <v>30010001</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="1">
+    <row r="10" s="1" customFormat="1" spans="2:25">
+      <c r="B10" s="1">
+        <v>30020001</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1">
         <v>10000</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U8" s="1">
-        <v>30010001</v>
-      </c>
-      <c r="Y8" s="1" t="b">
+      <c r="G10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="1">
+        <v>30020001</v>
+      </c>
+      <c r="X10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z8" s="1">
-        <v>97030002</v>
+      <c r="Y10" s="1">
+        <v>97010004</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:26">
-      <c r="B9" s="1">
-        <v>30020001</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="1">
+    <row r="11" s="1" customFormat="1" spans="2:25">
+      <c r="B11" s="1">
+        <v>30030001</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="1">
+        <v>500</v>
+      </c>
+      <c r="F11" s="1">
         <v>10000</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U9" s="1">
-        <v>30020001</v>
-      </c>
-      <c r="Y9" s="1" t="b">
+      <c r="G11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" s="1">
+        <v>30030001</v>
+      </c>
+      <c r="X11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Y11" s="1">
+        <v>30030001</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:25">
+      <c r="B12" s="1">
+        <v>30040001</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T12" s="1">
+        <v>30040001</v>
+      </c>
+      <c r="X12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>97030001</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="2:25">
+      <c r="B13" s="1">
+        <v>30050001</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T13" s="1">
+        <v>30050001</v>
+      </c>
+      <c r="X13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>97030001</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="2:25">
+      <c r="B14" s="1">
+        <v>30060001</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T14" s="1">
+        <v>30060001</v>
+      </c>
+      <c r="X14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
         <v>97020001</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="2:26">
-      <c r="B10" s="1">
-        <v>30030001</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="1">
+    <row r="15" s="1" customFormat="1" spans="2:25">
+      <c r="B15" s="1">
+        <v>30070001</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15" s="1">
+        <v>30070001</v>
+      </c>
+      <c r="X15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>97030001</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="2:25">
+      <c r="B16" s="1">
+        <v>30080001</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16" s="1">
+        <v>30080001</v>
+      </c>
+      <c r="X16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>97030001</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="2:25">
+      <c r="B18" s="1">
+        <v>40000001</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="1">
+        <v>2567</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T18" s="1">
+        <v>40010001</v>
+      </c>
+      <c r="X18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>40010001</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="2:25">
+      <c r="B19" s="1">
+        <v>40000101</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" s="1">
+        <v>967</v>
+      </c>
+      <c r="R19" s="1">
         <v>500</v>
       </c>
-      <c r="G10" s="1">
+      <c r="T19" s="1">
+        <v>40000101</v>
+      </c>
+      <c r="X19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>40000101</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="2:25">
+      <c r="B20" s="3">
+        <v>40040101</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>10000</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U10" s="1">
-        <v>30030001</v>
-      </c>
-      <c r="Y10" s="1" t="b">
+      <c r="H20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="3">
+        <v>981</v>
+      </c>
+      <c r="J20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T20" s="3">
+        <v>30040101</v>
+      </c>
+      <c r="X20" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="Z10" s="1">
-        <v>30030001</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="2:26">
-      <c r="B11" s="1">
-        <v>30040001</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U11" s="1">
-        <v>30040001</v>
-      </c>
-      <c r="Y11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>97030001</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="2:26">
-      <c r="B12" s="1">
-        <v>30050001</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U12" s="1">
-        <v>30050001</v>
-      </c>
-      <c r="Y12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>97030001</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="2:26">
-      <c r="B13" s="1">
-        <v>30060001</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U13" s="1">
-        <v>30060001</v>
-      </c>
-      <c r="Y13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>97020001</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="2:26">
-      <c r="B14" s="1">
-        <v>30070001</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U14" s="1">
-        <v>30070001</v>
-      </c>
-      <c r="Y14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>97030001</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="2:26">
-      <c r="B15" s="1">
-        <v>30080001</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U15" s="1">
-        <v>30080001</v>
-      </c>
-      <c r="Y15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>97030001</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="2:26">
-      <c r="B17" s="1">
-        <v>40000001</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>2567</v>
-      </c>
-      <c r="S17" s="1">
-        <v>1000</v>
-      </c>
-      <c r="U17" s="1">
-        <v>40010001</v>
-      </c>
-      <c r="Y17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>40010001</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="2:26">
-      <c r="B18" s="1">
-        <v>40000101</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>967</v>
-      </c>
-      <c r="S18" s="1">
-        <v>500</v>
-      </c>
-      <c r="U18" s="1">
-        <v>40000101</v>
-      </c>
-      <c r="Y18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>40000101</v>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="2:26">
-      <c r="B19" s="3">
-        <v>40040101</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G19" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="3">
-        <v>981</v>
-      </c>
-      <c r="K19" s="3">
-        <v>10000</v>
-      </c>
-      <c r="U19" s="3">
-        <v>30040101</v>
-      </c>
-      <c r="Y19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="3">
+      <c r="Y20" s="3">
         <v>97010002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="V2:W2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -66,6 +66,23 @@
         </r>
       </text>
     </comment>
+    <comment ref="G3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">    None		0	无类型
+    Normal	普攻	1	普通攻击
+    Active	主动	2	主动技能
+    Dead	死亡	3	死亡技能
+    Counter	反击	4	反击技能
+    CountDown	CD	5	CD技能</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="P3" authorId="1">
       <text>
         <r>
@@ -507,6 +524,11 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -522,11 +544,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -1337,7 +1354,7 @@
   <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -292,13 +292,19 @@
     <t>英雄1000，添加攻速BUFF</t>
   </si>
   <si>
-    <t>主动</t>
+    <t>手动</t>
   </si>
   <si>
     <t>Skill</t>
   </si>
   <si>
     <t>英雄1000，3目标子弹伤害</t>
+  </si>
+  <si>
+    <t>横一字型 激活技</t>
+  </si>
+  <si>
+    <t>激活</t>
   </si>
   <si>
     <t>大本营 普攻</t>
@@ -523,17 +529,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -542,8 +537,19 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -1351,10 +1357,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1375,7 +1381,7 @@
     <col min="16" max="16" width="8.71428571428571" style="1" customWidth="1"/>
     <col min="17" max="17" width="14.1428571428571" style="1" customWidth="1"/>
     <col min="18" max="19" width="9.82142857142857" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7857142857143" style="1" customWidth="1"/>
     <col min="21" max="21" width="23.2857142857143" style="1" customWidth="1"/>
     <col min="22" max="22" width="10.8571428571429" style="1" customWidth="1"/>
     <col min="23" max="23" width="10.7142857142857" style="1" customWidth="1"/>
@@ -1703,7 +1709,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="2:25">
       <c r="B7" s="1">
-        <v>30000001</v>
+        <v>20010001</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>60</v>
@@ -1712,73 +1718,73 @@
         <v>10000</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="T7" s="1">
-        <v>30000001</v>
+        <v>20010001</v>
       </c>
       <c r="X7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>30000001</v>
+        <v>20010001</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:25">
       <c r="B8" s="1">
-        <v>30001001</v>
+        <v>30000001</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10000</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1">
         <v>10000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="T8" s="1">
-        <v>30001001</v>
+        <v>30000001</v>
       </c>
       <c r="X8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>97010004</v>
+        <v>30000001</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:25">
       <c r="B9" s="1">
-        <v>30010001</v>
+        <v>30001001</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="E9" s="1">
+        <v>10000</v>
+      </c>
       <c r="F9" s="1">
         <v>10000</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="T9" s="1">
-        <v>30010001</v>
+        <v>30001001</v>
       </c>
       <c r="X9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>97030002</v>
+        <v>97010004</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:25">
       <c r="B10" s="1">
-        <v>30020001</v>
+        <v>30010001</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1">
         <v>10000</v>
@@ -1787,70 +1793,70 @@
         <v>54</v>
       </c>
       <c r="T10" s="1">
-        <v>30020001</v>
+        <v>30010001</v>
       </c>
       <c r="X10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>97010004</v>
+        <v>97030002</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:25">
       <c r="B11" s="1">
-        <v>30030001</v>
+        <v>30020001</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="1">
-        <v>500</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1">
         <v>10000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="T11" s="1">
-        <v>30030001</v>
+        <v>30020001</v>
       </c>
       <c r="X11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>30030001</v>
+        <v>97010004</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:25">
       <c r="B12" s="1">
-        <v>30040001</v>
+        <v>30030001</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="E12" s="1">
+        <v>500</v>
       </c>
       <c r="F12" s="1">
         <v>10000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="T12" s="1">
-        <v>30040001</v>
+        <v>30030001</v>
       </c>
       <c r="X12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>97030001</v>
+        <v>30030001</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="2:25">
       <c r="B13" s="1">
-        <v>30050001</v>
+        <v>30040001</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1">
         <v>10000</v>
@@ -1859,7 +1865,7 @@
         <v>54</v>
       </c>
       <c r="T13" s="1">
-        <v>30050001</v>
+        <v>30040001</v>
       </c>
       <c r="X13" s="1" t="b">
         <v>0</v>
@@ -1870,10 +1876,10 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="2:25">
       <c r="B14" s="1">
-        <v>30060001</v>
+        <v>30050001</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="1">
         <v>10000</v>
@@ -1882,21 +1888,21 @@
         <v>54</v>
       </c>
       <c r="T14" s="1">
-        <v>30060001</v>
+        <v>30050001</v>
       </c>
       <c r="X14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>97020001</v>
+        <v>97030001</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="2:25">
       <c r="B15" s="1">
-        <v>30070001</v>
+        <v>30060001</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15" s="1">
         <v>10000</v>
@@ -1905,21 +1911,21 @@
         <v>54</v>
       </c>
       <c r="T15" s="1">
-        <v>30070001</v>
+        <v>30060001</v>
       </c>
       <c r="X15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>97030001</v>
+        <v>97020001</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:25">
       <c r="B16" s="1">
-        <v>30080001</v>
+        <v>30070001</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1">
         <v>10000</v>
@@ -1928,7 +1934,7 @@
         <v>54</v>
       </c>
       <c r="T16" s="1">
-        <v>30080001</v>
+        <v>30070001</v>
       </c>
       <c r="X16" s="1" t="b">
         <v>0</v>
@@ -1937,44 +1943,35 @@
         <v>97030001</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="2:25">
-      <c r="B18" s="1">
-        <v>40000001</v>
-      </c>
-      <c r="C18" s="1" t="s">
+    <row r="17" s="1" customFormat="1" spans="2:25">
+      <c r="B17" s="1">
+        <v>30080001</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="1">
-        <v>2567</v>
-      </c>
-      <c r="R18" s="1">
-        <v>1000</v>
-      </c>
-      <c r="T18" s="1">
-        <v>40010001</v>
-      </c>
-      <c r="X18" s="1" t="b">
+      <c r="T17" s="1">
+        <v>30080001</v>
+      </c>
+      <c r="X17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Y18" s="1">
-        <v>40010001</v>
+      <c r="Y17" s="1">
+        <v>97030001</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:25">
       <c r="B19" s="1">
-        <v>40000101</v>
+        <v>40000001</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1">
         <v>10000</v>
@@ -1983,53 +1980,85 @@
         <v>54</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P19" s="1">
-        <v>967</v>
+        <v>2567</v>
       </c>
       <c r="R19" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T19" s="1">
-        <v>40000101</v>
+        <v>40010001</v>
       </c>
       <c r="X19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y19" s="1">
+        <v>40010001</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="2:25">
+      <c r="B20" s="1">
         <v>40000101</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="1">
+        <v>967</v>
+      </c>
+      <c r="R20" s="1">
+        <v>500</v>
+      </c>
+      <c r="T20" s="1">
+        <v>40000101</v>
+      </c>
+      <c r="X20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>40000101</v>
+      </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="2:25">
-      <c r="B20" s="3">
+    <row r="21" s="3" customFormat="1" spans="2:25">
+      <c r="B21" s="3">
         <v>40040101</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="C21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <v>10000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="H21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="3">
         <v>981</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J21" s="3">
         <v>10000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T21" s="3">
         <v>30040101</v>
       </c>
-      <c r="X20" s="3" t="b">
+      <c r="X21" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y21" s="3">
         <v>97010002</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -74,12 +74,13 @@
             <rFont val="宋体"/>
             <charset val="0"/>
           </rPr>
-          <t xml:space="preserve">    None		0	无类型
-    Normal	普攻	1	普通攻击
-    Active	主动	2	主动技能
-    Dead	死亡	3	死亡技能
-    Counter	反击	4	反击技能
-    CountDown	CD	5	CD技能</t>
+          <t>None		0	无类型
+Normal	普攻	1	普通攻击
+Manual	手动	2	手动技能
+Dead	死亡	3	死亡技能
+Counter	反击	4	反击技能
+CountDown	CD	5	CD技能
+Put	放置	6	放置技能</t>
         </r>
       </text>
     </comment>
@@ -301,12 +302,6 @@
     <t>英雄1000，3目标子弹伤害</t>
   </si>
   <si>
-    <t>横一字型 激活技</t>
-  </si>
-  <si>
-    <t>激活</t>
-  </si>
-  <si>
     <t>大本营 普攻</t>
   </si>
   <si>
@@ -314,6 +309,12 @@
   </si>
   <si>
     <t>CD</t>
+  </si>
+  <si>
+    <t>建筑通用 高度加成属性</t>
+  </si>
+  <si>
+    <t>放置</t>
   </si>
   <si>
     <t>TowerCircle</t>
@@ -529,6 +530,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -537,19 +549,8 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -1360,7 +1361,7 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1709,7 +1710,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="2:25">
       <c r="B7" s="1">
-        <v>20010001</v>
+        <v>30000001</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>60</v>
@@ -1718,51 +1719,51 @@
         <v>10000</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="T7" s="1">
-        <v>20010001</v>
+        <v>30000001</v>
       </c>
       <c r="X7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>20010001</v>
+        <v>30000001</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:25">
       <c r="B8" s="1">
-        <v>30000001</v>
+        <v>30001001</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10000</v>
       </c>
       <c r="F8" s="1">
         <v>10000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="T8" s="1">
-        <v>30000001</v>
+        <v>30001001</v>
       </c>
       <c r="X8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>30000001</v>
+        <v>97010004</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:25">
       <c r="B9" s="1">
-        <v>30001001</v>
+        <v>30009001</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="1">
-        <v>10000</v>
-      </c>
       <c r="F9" s="1">
         <v>10000</v>
       </c>
@@ -1770,13 +1771,13 @@
         <v>64</v>
       </c>
       <c r="T9" s="1">
-        <v>30001001</v>
+        <v>30009001</v>
       </c>
       <c r="X9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>97010004</v>
+        <v>97020001</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:25">
@@ -1839,7 +1840,7 @@
         <v>10000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T12" s="1">
         <v>30030001</v>

--- a/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Skill/Skill.xlsx
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>英雄1000，3目标子弹伤害</t>
+  </si>
+  <si>
+    <t>召唤一个持续伤害的区域</t>
   </si>
   <si>
     <t>大本营 普攻</t>
@@ -1358,10 +1361,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="T6:Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -1673,7 +1676,7 @@
         <v>10010101</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:25">
+    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="2:25">
       <c r="B6" s="1">
         <v>10010201</v>
       </c>
@@ -1708,104 +1711,116 @@
         <v>10010201</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="2:25">
+    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="2:25">
       <c r="B7" s="1">
-        <v>30000001</v>
+        <v>10010301</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="E7" s="1">
+        <v>2000</v>
+      </c>
       <c r="F7" s="1">
         <v>10000</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="1">
+        <v>967</v>
+      </c>
+      <c r="R7" s="1">
+        <v>500</v>
       </c>
       <c r="T7" s="1">
-        <v>30000001</v>
+        <v>10010301</v>
       </c>
       <c r="X7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>30000001</v>
+        <v>97020001</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:25">
       <c r="B8" s="1">
-        <v>30001001</v>
+        <v>30000001</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="1">
-        <v>10000</v>
-      </c>
       <c r="F8" s="1">
         <v>10000</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="T8" s="1">
-        <v>30001001</v>
+        <v>30000001</v>
       </c>
       <c r="X8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>97010004</v>
+        <v>30000001</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:25">
       <c r="B9" s="1">
-        <v>30009001</v>
+        <v>30001001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10000</v>
       </c>
       <c r="F9" s="1">
         <v>10000</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T9" s="1">
-        <v>30009001</v>
+        <v>30001001</v>
       </c>
       <c r="X9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>97020001</v>
+        <v>97010004</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:25">
       <c r="B10" s="1">
-        <v>30010001</v>
+        <v>30009001</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1">
         <v>10000</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="T10" s="1">
-        <v>30010001</v>
+        <v>30009001</v>
       </c>
       <c r="X10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>97030002</v>
+        <v>97020001</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:25">
       <c r="B11" s="1">
-        <v>30020001</v>
+        <v>30010001</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>66</v>
@@ -1817,67 +1832,67 @@
         <v>54</v>
       </c>
       <c r="T11" s="1">
-        <v>30020001</v>
+        <v>30010001</v>
       </c>
       <c r="X11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>97010004</v>
+        <v>97030002</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:25">
       <c r="B12" s="1">
-        <v>30030001</v>
+        <v>30020001</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="1">
-        <v>500</v>
-      </c>
       <c r="F12" s="1">
         <v>10000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="T12" s="1">
-        <v>30030001</v>
+        <v>30020001</v>
       </c>
       <c r="X12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>30030001</v>
+        <v>97010004</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="2:25">
       <c r="B13" s="1">
-        <v>30040001</v>
+        <v>30030001</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="E13" s="1">
+        <v>500</v>
+      </c>
       <c r="F13" s="1">
         <v>10000</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="T13" s="1">
-        <v>30040001</v>
+        <v>30030001</v>
       </c>
       <c r="X13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>97030001</v>
+        <v>30030001</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:25">
       <c r="B14" s="1">
-        <v>30050001</v>
+        <v>30040001</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>69</v>
@@ -1889,7 +1904,7 @@
         <v>54</v>
       </c>
       <c r="T14" s="1">
-        <v>30050001</v>
+        <v>30040001</v>
       </c>
       <c r="X14" s="1" t="b">
         <v>0</v>
@@ -1900,7 +1915,7 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="2:25">
       <c r="B15" s="1">
-        <v>30060001</v>
+        <v>30050001</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>70</v>
@@ -1912,18 +1927,18 @@
         <v>54</v>
       </c>
       <c r="T15" s="1">
-        <v>30060001</v>
+        <v>30050001</v>
       </c>
       <c r="X15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>97020001</v>
+        <v>97030001</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="2:25">
       <c r="B16" s="1">
-        <v>30070001</v>
+        <v>30060001</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>71</v>
@@ -1935,18 +1950,18 @@
         <v>54</v>
       </c>
       <c r="T16" s="1">
-        <v>30070001</v>
+        <v>30060001</v>
       </c>
       <c r="X16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>97030001</v>
+        <v>97020001</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:25">
       <c r="B17" s="1">
-        <v>30080001</v>
+        <v>30070001</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>72</v>
@@ -1958,7 +1973,7 @@
         <v>54</v>
       </c>
       <c r="T17" s="1">
-        <v>30080001</v>
+        <v>30070001</v>
       </c>
       <c r="X17" s="1" t="b">
         <v>0</v>
@@ -1967,44 +1982,35 @@
         <v>97030001</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="2:25">
-      <c r="B19" s="1">
-        <v>40000001</v>
-      </c>
-      <c r="C19" s="1" t="s">
+    <row r="18" s="1" customFormat="1" spans="2:25">
+      <c r="B18" s="1">
+        <v>30080001</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P19" s="1">
-        <v>2567</v>
-      </c>
-      <c r="R19" s="1">
-        <v>1000</v>
-      </c>
-      <c r="T19" s="1">
-        <v>40010001</v>
-      </c>
-      <c r="X19" s="1" t="b">
+      <c r="T18" s="1">
+        <v>30080001</v>
+      </c>
+      <c r="X18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Y19" s="1">
-        <v>40010001</v>
+      <c r="Y18" s="1">
+        <v>97030001</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="2:25">
       <c r="B20" s="1">
-        <v>40000101</v>
+        <v>40000001</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F20" s="1">
         <v>10000</v>
@@ -2013,53 +2019,85 @@
         <v>54</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P20" s="1">
-        <v>967</v>
+        <v>2567</v>
       </c>
       <c r="R20" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T20" s="1">
-        <v>40000101</v>
+        <v>40010001</v>
       </c>
       <c r="X20" s="1" t="b">
         <v>0</v>
       </c>
       <c r="Y20" s="1">
+        <v>40010001</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="2:25">
+      <c r="B21" s="1">
         <v>40000101</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" s="1">
+        <v>967</v>
+      </c>
+      <c r="R21" s="1">
+        <v>500</v>
+      </c>
+      <c r="T21" s="1">
+        <v>40000101</v>
+      </c>
+      <c r="X21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>40000101</v>
+      </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="2:25">
-      <c r="B21" s="3">
+    <row r="22" s="3" customFormat="1" spans="2:25">
+      <c r="B22" s="3">
         <v>40040101</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="C22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="3">
         <v>10000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="H22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="3">
         <v>981</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J22" s="3">
         <v>10000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T22" s="3">
         <v>30040101</v>
       </c>
-      <c r="X21" s="3" t="b">
+      <c r="X22" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y22" s="3">
         <v>97010002</v>
       </c>
     </row>
